--- a/Code/Results/Cases/Case_2_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.584242865207898</v>
+        <v>1.199071582251861</v>
       </c>
       <c r="C2">
-        <v>0.9477584576572156</v>
+        <v>0.3178250702425487</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.102981311911734</v>
+        <v>0.8798451468993562</v>
       </c>
       <c r="F2">
-        <v>1.711134864242979</v>
+        <v>1.88625115010565</v>
       </c>
       <c r="G2">
-        <v>0.08372342486395468</v>
+        <v>0.1612604381511389</v>
       </c>
       <c r="H2">
-        <v>0.1003269555673114</v>
+        <v>0.3483257670118078</v>
       </c>
       <c r="I2">
-        <v>0.04593801524716534</v>
+        <v>0.2169278018084109</v>
       </c>
       <c r="J2">
-        <v>0.006472089855432017</v>
+        <v>0.01794134904406164</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3390454671873897</v>
+        <v>0.9206544587897696</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.128101965680457</v>
+        <v>1.048591397316329</v>
       </c>
       <c r="C3">
-        <v>0.8329362781727241</v>
+        <v>0.2796713744100998</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9720429907416417</v>
+        <v>0.8482515784806566</v>
       </c>
       <c r="F3">
-        <v>1.534058784927595</v>
+        <v>1.858967255064229</v>
       </c>
       <c r="G3">
-        <v>0.07970181475358018</v>
+        <v>0.1650523209733024</v>
       </c>
       <c r="H3">
-        <v>0.1052795270117173</v>
+        <v>0.3543665596727053</v>
       </c>
       <c r="I3">
-        <v>0.05588925002458267</v>
+        <v>0.2240789126147897</v>
       </c>
       <c r="J3">
-        <v>0.006511421170461773</v>
+        <v>0.01834828464058802</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3405108040523714</v>
+        <v>0.941088422014964</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.847830983489246</v>
+        <v>0.9558088060554724</v>
       </c>
       <c r="C4">
-        <v>0.7623766074724472</v>
+        <v>0.256141874402374</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.892658143554911</v>
+        <v>0.8292103933822119</v>
       </c>
       <c r="F4">
-        <v>1.428639499316802</v>
+        <v>1.843517162896703</v>
       </c>
       <c r="G4">
-        <v>0.07806319891549762</v>
+        <v>0.1676665267281336</v>
       </c>
       <c r="H4">
-        <v>0.1088427145262969</v>
+        <v>0.3583439427460675</v>
       </c>
       <c r="I4">
-        <v>0.06266140649301843</v>
+        <v>0.2287472014286971</v>
       </c>
       <c r="J4">
-        <v>0.006592893624018714</v>
+        <v>0.0186208871742064</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3442567603423683</v>
+        <v>0.9547946878857374</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.733541968348788</v>
+        <v>0.917904714957956</v>
       </c>
       <c r="C5">
-        <v>0.7336023826312896</v>
+        <v>0.2465283047361595</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8605342949215924</v>
+        <v>0.8215409155136939</v>
       </c>
       <c r="F5">
-        <v>1.386440852490196</v>
+        <v>1.837547803209446</v>
       </c>
       <c r="G5">
-        <v>0.07758962343100606</v>
+        <v>0.1688033102836286</v>
       </c>
       <c r="H5">
-        <v>0.110419556082654</v>
+        <v>0.3600321044057111</v>
       </c>
       <c r="I5">
-        <v>0.0655787747188048</v>
+        <v>0.2307190987788095</v>
       </c>
       <c r="J5">
-        <v>0.006639562772613239</v>
+        <v>0.01873766846595526</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3464541337820037</v>
+        <v>0.960670535704935</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.714559026266954</v>
+        <v>0.9116051525190301</v>
       </c>
       <c r="C6">
-        <v>0.7288230387296437</v>
+        <v>0.244930485682147</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8552130206812194</v>
+        <v>0.8202728406842397</v>
       </c>
       <c r="F6">
-        <v>1.379477748557733</v>
+        <v>1.836576302764101</v>
       </c>
       <c r="G6">
-        <v>0.07752229830032675</v>
+        <v>0.1689963763168656</v>
       </c>
       <c r="H6">
-        <v>0.1106887434308845</v>
+        <v>0.360316486260416</v>
       </c>
       <c r="I6">
-        <v>0.06607247392557558</v>
+        <v>0.2310507232801176</v>
       </c>
       <c r="J6">
-        <v>0.006648098939418645</v>
+        <v>0.0187574030470774</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3468582562556364</v>
+        <v>0.9616637222684759</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.84628998414172</v>
+        <v>0.9552979966888415</v>
       </c>
       <c r="C7">
-        <v>0.761988638989294</v>
+        <v>0.2560123230507543</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8922240305483626</v>
+        <v>0.8291065957569685</v>
       </c>
       <c r="F7">
-        <v>1.428067404491372</v>
+        <v>1.84343533638409</v>
       </c>
       <c r="G7">
-        <v>0.07805604480164519</v>
+        <v>0.1676815689757802</v>
       </c>
       <c r="H7">
-        <v>0.1088634833732698</v>
+        <v>0.3583664373684776</v>
       </c>
       <c r="I7">
-        <v>0.06270012412760595</v>
+        <v>0.2287735139159999</v>
       </c>
       <c r="J7">
-        <v>0.006593469699357257</v>
+        <v>0.01862243910806072</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3442837361924305</v>
+        <v>0.9548727572538809</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.426990026160354</v>
+        <v>1.14726806545184</v>
       </c>
       <c r="C8">
-        <v>0.9081761367637569</v>
+        <v>0.3046915072031879</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.05760608615067</v>
+        <v>0.8688775488406151</v>
       </c>
       <c r="F8">
-        <v>1.649348805176544</v>
+        <v>1.876572866663764</v>
       </c>
       <c r="G8">
-        <v>0.08215528311760778</v>
+        <v>0.1625082632025467</v>
       </c>
       <c r="H8">
-        <v>0.1019221743786005</v>
+        <v>0.350352870568301</v>
       </c>
       <c r="I8">
-        <v>0.04922635002324993</v>
+        <v>0.21933576953136</v>
       </c>
       <c r="J8">
-        <v>0.00647316821038757</v>
+        <v>0.01807692512259607</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.338932276887121</v>
+        <v>0.9274586743551225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.565521931111164</v>
+        <v>1.520539224725894</v>
       </c>
       <c r="C9">
-        <v>1.194693884130629</v>
+        <v>0.3993042774215496</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.391345593004516</v>
+        <v>0.9497050979195905</v>
       </c>
       <c r="F9">
-        <v>2.112960662845722</v>
+        <v>1.951931273305348</v>
       </c>
       <c r="G9">
-        <v>0.09748688469449718</v>
+        <v>0.1546520295998803</v>
       </c>
       <c r="H9">
-        <v>0.09276517628465086</v>
+        <v>0.3367725966994755</v>
       </c>
       <c r="I9">
-        <v>0.02847619582108196</v>
+        <v>0.2030405858959998</v>
       </c>
       <c r="J9">
-        <v>0.006737489645811223</v>
+        <v>0.01718874681567861</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3531614675855081</v>
+        <v>0.8829545543946153</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.404008501834937</v>
+        <v>1.79272185520415</v>
       </c>
       <c r="C10">
-        <v>1.405594853730918</v>
+        <v>0.4682666605880286</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.644432766037525</v>
+        <v>1.010827414165973</v>
       </c>
       <c r="F10">
-        <v>2.476881641936757</v>
+        <v>2.013690099286435</v>
       </c>
       <c r="G10">
-        <v>0.1142361992704508</v>
+        <v>0.1503019923563684</v>
       </c>
       <c r="H10">
-        <v>0.08921268009903116</v>
+        <v>0.3281034506119127</v>
       </c>
       <c r="I10">
-        <v>0.01730475880698101</v>
+        <v>0.1924311623141364</v>
       </c>
       <c r="J10">
-        <v>0.007304286806979476</v>
+        <v>0.01664842401051381</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3818537625967195</v>
+        <v>0.8559713652977337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.786423781939163</v>
+        <v>1.916074158366541</v>
       </c>
       <c r="C11">
-        <v>1.501747997297912</v>
+        <v>0.4995135566634303</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.761813884272428</v>
+        <v>1.039013438203341</v>
       </c>
       <c r="F11">
-        <v>2.648777960080878</v>
+        <v>2.043189132929598</v>
       </c>
       <c r="G11">
-        <v>0.1232962731751499</v>
+        <v>0.1486375191403013</v>
       </c>
       <c r="H11">
-        <v>0.08839620196683029</v>
+        <v>0.3244452388516734</v>
       </c>
       <c r="I11">
-        <v>0.01325409573738501</v>
+        <v>0.1879035396800344</v>
       </c>
       <c r="J11">
-        <v>0.007659431553426188</v>
+        <v>0.01642731281276788</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.399626443867092</v>
+        <v>0.8449521275111209</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.931422787558006</v>
+        <v>1.962715104956658</v>
       </c>
       <c r="C12">
-        <v>1.538200236173225</v>
+        <v>0.5113273650162</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.806635782898596</v>
+        <v>1.049741612895303</v>
       </c>
       <c r="F12">
-        <v>2.714900724447944</v>
+        <v>2.05456268570768</v>
       </c>
       <c r="G12">
-        <v>0.1269568747749261</v>
+        <v>0.1480528998865012</v>
       </c>
       <c r="H12">
-        <v>0.08821201464397177</v>
+        <v>0.3231011467799405</v>
       </c>
       <c r="I12">
-        <v>0.01188181905971808</v>
+        <v>0.1862322524509592</v>
       </c>
       <c r="J12">
-        <v>0.007809407934395551</v>
+        <v>0.01634716055871444</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.407104218784184</v>
+        <v>0.840961248238969</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.900185592320554</v>
+        <v>1.952673299130709</v>
       </c>
       <c r="C13">
-        <v>1.530347587422796</v>
+        <v>0.5087838952360357</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.796965203084298</v>
+        <v>1.047428675106843</v>
       </c>
       <c r="F13">
-        <v>2.700612246315245</v>
+        <v>2.052104148421449</v>
       </c>
       <c r="G13">
-        <v>0.1261579019744232</v>
+        <v>0.1481767689270939</v>
       </c>
       <c r="H13">
-        <v>0.08824595546344227</v>
+        <v>0.323388786594677</v>
       </c>
       <c r="I13">
-        <v>0.01216995237643292</v>
+        <v>0.1865902671678259</v>
       </c>
       <c r="J13">
-        <v>0.00777639364123317</v>
+        <v>0.01636426321017659</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4054593394664465</v>
+        <v>0.8418126459281865</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.798348923193601</v>
+        <v>1.919912755160908</v>
       </c>
       <c r="C14">
-        <v>1.504746057025443</v>
+        <v>0.5004858654886561</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.765493652884416</v>
+        <v>1.039894954942952</v>
       </c>
       <c r="F14">
-        <v>2.654196582039305</v>
+        <v>2.04412077005469</v>
       </c>
       <c r="G14">
-        <v>0.1235926929012692</v>
+        <v>0.1485885039499593</v>
       </c>
       <c r="H14">
-        <v>0.08837848346821175</v>
+        <v>0.324333833156949</v>
       </c>
       <c r="I14">
-        <v>0.01313787869967431</v>
+        <v>0.1877651739798423</v>
       </c>
       <c r="J14">
-        <v>0.007671450701352001</v>
+        <v>0.01642064677390564</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4002262471266533</v>
+        <v>0.8446201430369484</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.73599674084744</v>
+        <v>1.899836784276829</v>
       </c>
       <c r="C15">
-        <v>1.489070064810733</v>
+        <v>0.4954006215055529</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.746266420536841</v>
+        <v>1.035287460357381</v>
       </c>
       <c r="F15">
-        <v>2.625903351399785</v>
+        <v>2.039257172530171</v>
       </c>
       <c r="G15">
-        <v>0.1220520486490813</v>
+        <v>0.1488466665217558</v>
       </c>
       <c r="H15">
-        <v>0.08847624956651856</v>
+        <v>0.324918070482326</v>
       </c>
       <c r="I15">
-        <v>0.01375222182486979</v>
+        <v>0.1884904757965038</v>
       </c>
       <c r="J15">
-        <v>0.007609234133129306</v>
+        <v>0.01645565010023731</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3971203288972447</v>
+        <v>0.8463635396496585</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.379040326705024</v>
+        <v>1.784650876091746</v>
       </c>
       <c r="C16">
-        <v>1.399316182374889</v>
+        <v>0.4662220282388034</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.636810962575652</v>
+        <v>1.008993055048222</v>
       </c>
       <c r="F16">
-        <v>2.465785256859334</v>
+        <v>2.011790611802184</v>
       </c>
       <c r="G16">
-        <v>0.1136749829357839</v>
+        <v>0.1504171362110043</v>
       </c>
       <c r="H16">
-        <v>0.0892829669327142</v>
+        <v>0.3283482796327704</v>
       </c>
       <c r="I16">
-        <v>0.01759134791331984</v>
+        <v>0.1927330866654819</v>
       </c>
       <c r="J16">
-        <v>0.007283160512038478</v>
+        <v>0.01666337326892986</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3807930271199069</v>
+        <v>0.8567168762285178</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.16034192514104</v>
+        <v>1.713866800003302</v>
       </c>
       <c r="C17">
-        <v>1.344316830546347</v>
+        <v>0.4482894495336041</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.570273047259832</v>
+        <v>0.9929598635472843</v>
       </c>
       <c r="F17">
-        <v>2.369263232984935</v>
+        <v>1.995301183207957</v>
       </c>
       <c r="G17">
-        <v>0.1089204437363307</v>
+        <v>0.1514614259868452</v>
       </c>
       <c r="H17">
-        <v>0.08998953677053123</v>
+        <v>0.3305258126905244</v>
       </c>
       <c r="I17">
-        <v>0.02021983859542598</v>
+        <v>0.195412482529985</v>
       </c>
       <c r="J17">
-        <v>0.007109074046985242</v>
+        <v>0.01679714701274726</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3720330928473032</v>
+        <v>0.863390829980375</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.034642019135731</v>
+        <v>1.673110088650446</v>
       </c>
       <c r="C18">
-        <v>1.312702043474587</v>
+        <v>0.4379634403277919</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.532210838601856</v>
+        <v>0.9837738780308314</v>
       </c>
       <c r="F18">
-        <v>2.314336112201701</v>
+        <v>1.98594905527132</v>
       </c>
       <c r="G18">
-        <v>0.1063199149983447</v>
+        <v>0.1520916366429645</v>
       </c>
       <c r="H18">
-        <v>0.09047055227957657</v>
+        <v>0.331805128858953</v>
       </c>
       <c r="I18">
-        <v>0.02182789213867942</v>
+        <v>0.1969816945379712</v>
       </c>
       <c r="J18">
-        <v>0.007018006120635079</v>
+        <v>0.01687641185750266</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3674344903479039</v>
+        <v>0.8673476112761875</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.992096273508423</v>
+        <v>1.659303174080435</v>
       </c>
       <c r="C19">
-        <v>1.302000846604699</v>
+        <v>0.4344652527788639</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.519358061103858</v>
+        <v>0.9806698262874392</v>
       </c>
       <c r="F19">
-        <v>2.295836649703219</v>
+        <v>1.982805255151604</v>
       </c>
       <c r="G19">
-        <v>0.1054618027041556</v>
+        <v>0.1523100781425555</v>
       </c>
       <c r="H19">
-        <v>0.09064593842044388</v>
+        <v>0.3322428914528288</v>
       </c>
       <c r="I19">
-        <v>0.02238848631231871</v>
+        <v>0.1975178195109701</v>
       </c>
       <c r="J19">
-        <v>0.006988684879258855</v>
+        <v>0.01690364747184603</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3659510207875059</v>
+        <v>0.8687075528765433</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.18361315244772</v>
+        <v>1.721406418501203</v>
       </c>
       <c r="C20">
-        <v>1.350169526496927</v>
+        <v>0.4501996163149329</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.577334191990616</v>
+        <v>0.9946629110305736</v>
       </c>
       <c r="F20">
-        <v>2.379476314875717</v>
+        <v>1.997042826771221</v>
       </c>
       <c r="G20">
-        <v>0.1094125299393625</v>
+        <v>0.1513471964871087</v>
       </c>
       <c r="H20">
-        <v>0.08990652872090266</v>
+        <v>0.3302912299229419</v>
       </c>
       <c r="I20">
-        <v>0.01992997996008805</v>
+        <v>0.1951243465853412</v>
       </c>
       <c r="J20">
-        <v>0.007126657514046286</v>
+        <v>0.01678266607558321</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3729195951548974</v>
+        <v>0.8626681437645374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.828255375307094</v>
+        <v>1.929537241980029</v>
       </c>
       <c r="C21">
-        <v>1.512264642339403</v>
+        <v>0.5029237123263783</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.774727096048721</v>
+        <v>1.042106306133874</v>
       </c>
       <c r="F21">
-        <v>2.667801066374864</v>
+        <v>2.046460167522156</v>
       </c>
       <c r="G21">
-        <v>0.1243397328967788</v>
+        <v>0.1484663238715171</v>
       </c>
       <c r="H21">
-        <v>0.08833608066951371</v>
+        <v>0.3240551309089668</v>
       </c>
       <c r="I21">
-        <v>0.01284907777106792</v>
+        <v>0.1874189000279713</v>
       </c>
       <c r="J21">
-        <v>0.007701841990694902</v>
+        <v>0.01640398823044364</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4017424664388471</v>
+        <v>0.8437905667597079</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.250678212895139</v>
+        <v>2.065153987059546</v>
       </c>
       <c r="C22">
-        <v>1.618448514645934</v>
+        <v>0.5372725085346701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.905930598232331</v>
+        <v>1.073432338126736</v>
       </c>
       <c r="F22">
-        <v>2.862300193666897</v>
+        <v>2.079940397169963</v>
       </c>
       <c r="G22">
-        <v>0.1354464675631064</v>
+        <v>0.1468499872374025</v>
       </c>
       <c r="H22">
-        <v>0.08804350387794102</v>
+        <v>0.3202196551762597</v>
       </c>
       <c r="I22">
-        <v>0.009170270388331847</v>
+        <v>0.182635024240132</v>
       </c>
       <c r="J22">
-        <v>0.008168840922428089</v>
+        <v>0.01617736734554676</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4249737130844693</v>
+        <v>0.832513648818761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.025105426154255</v>
+        <v>1.992811176225359</v>
       </c>
       <c r="C23">
-        <v>1.561750006013483</v>
+        <v>0.5189501926435582</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.83568650955975</v>
+        <v>1.056683877019253</v>
       </c>
       <c r="F23">
-        <v>2.75789615286962</v>
+        <v>2.061962804515247</v>
       </c>
       <c r="G23">
-        <v>0.129387048580007</v>
+        <v>0.1476881176386229</v>
       </c>
       <c r="H23">
-        <v>0.08812899395586982</v>
+        <v>0.3222446953678499</v>
       </c>
       <c r="I23">
-        <v>0.01104222093284379</v>
+        <v>0.1851651114298569</v>
       </c>
       <c r="J23">
-        <v>0.007910731401423732</v>
+        <v>0.01629640053966774</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.412148522462374</v>
+        <v>0.8384348654437872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.173092132039073</v>
+        <v>1.717997949881578</v>
       </c>
       <c r="C24">
-        <v>1.347523507635003</v>
+        <v>0.4493360807224462</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.57414125613424</v>
+        <v>0.9938928644848346</v>
       </c>
       <c r="F24">
-        <v>2.374857230398177</v>
+        <v>1.996255031491316</v>
       </c>
       <c r="G24">
-        <v>0.1091896454387538</v>
+        <v>0.1513987467470059</v>
       </c>
       <c r="H24">
-        <v>0.08994382442568138</v>
+        <v>0.3303971993797887</v>
       </c>
       <c r="I24">
-        <v>0.02006072422542271</v>
+        <v>0.1952545231822791</v>
       </c>
       <c r="J24">
-        <v>0.007118680055258508</v>
+        <v>0.01678920556929775</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.372517449575227</v>
+        <v>0.862994497016345</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.257332570406334</v>
+        <v>1.419912634236312</v>
       </c>
       <c r="C25">
-        <v>1.117151921298671</v>
+        <v>0.3738031615654336</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.299841579950225</v>
+        <v>0.9275344979854339</v>
       </c>
       <c r="F25">
-        <v>1.983851938888648</v>
+        <v>1.930427050121679</v>
       </c>
       <c r="G25">
-        <v>0.09245558766752282</v>
+        <v>0.1565295687161097</v>
       </c>
       <c r="H25">
-        <v>0.09471996887325673</v>
+        <v>0.3402171889872747</v>
       </c>
       <c r="I25">
-        <v>0.03342132795389952</v>
+        <v>0.207210584299911</v>
       </c>
       <c r="J25">
-        <v>0.006605755559849769</v>
+        <v>0.0174094257581956</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3463517059662138</v>
+        <v>0.8939958520573157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.199071582251861</v>
+        <v>3.584242865207898</v>
       </c>
       <c r="C2">
-        <v>0.3178250702425487</v>
+        <v>0.9477584576572156</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8798451468993562</v>
+        <v>1.102981311911776</v>
       </c>
       <c r="F2">
-        <v>1.88625115010565</v>
+        <v>1.711134864242993</v>
       </c>
       <c r="G2">
-        <v>0.1612604381511389</v>
+        <v>0.08372342486401152</v>
       </c>
       <c r="H2">
-        <v>0.3483257670118078</v>
+        <v>0.1003269555673114</v>
       </c>
       <c r="I2">
-        <v>0.2169278018084109</v>
+        <v>0.045938015247178</v>
       </c>
       <c r="J2">
-        <v>0.01794134904406164</v>
+        <v>0.006472089855485308</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9206544587897696</v>
+        <v>0.3390454671873897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.048591397316329</v>
+        <v>3.128101965680514</v>
       </c>
       <c r="C3">
-        <v>0.2796713744100998</v>
+        <v>0.8329362781724683</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8482515784806566</v>
+        <v>0.9720429907416559</v>
       </c>
       <c r="F3">
-        <v>1.858967255064229</v>
+        <v>1.534058784927609</v>
       </c>
       <c r="G3">
-        <v>0.1650523209733024</v>
+        <v>0.07970181475351268</v>
       </c>
       <c r="H3">
-        <v>0.3543665596727053</v>
+        <v>0.1052795270117173</v>
       </c>
       <c r="I3">
-        <v>0.2240789126147897</v>
+        <v>0.05588925002458467</v>
       </c>
       <c r="J3">
-        <v>0.01834828464058802</v>
+        <v>0.006511421170381837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.941088422014964</v>
+        <v>0.3405108040523714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9558088060554724</v>
+        <v>2.847830983489303</v>
       </c>
       <c r="C4">
-        <v>0.256141874402374</v>
+        <v>0.7623766074721914</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8292103933822119</v>
+        <v>0.8926581435549252</v>
       </c>
       <c r="F4">
-        <v>1.843517162896703</v>
+        <v>1.428639499316802</v>
       </c>
       <c r="G4">
-        <v>0.1676665267281336</v>
+        <v>0.07806319891548696</v>
       </c>
       <c r="H4">
-        <v>0.3583439427460675</v>
+        <v>0.1088427145262969</v>
       </c>
       <c r="I4">
-        <v>0.2287472014286971</v>
+        <v>0.06266140649300489</v>
       </c>
       <c r="J4">
-        <v>0.0186208871742064</v>
+        <v>0.006592893624064899</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9547946878857374</v>
+        <v>0.3442567603423043</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.917904714957956</v>
+        <v>2.73354196834913</v>
       </c>
       <c r="C5">
-        <v>0.2465283047361595</v>
+        <v>0.7336023826312612</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8215409155136939</v>
+        <v>0.8605342949216066</v>
       </c>
       <c r="F5">
-        <v>1.837547803209446</v>
+        <v>1.386440852490196</v>
       </c>
       <c r="G5">
-        <v>0.1688033102836286</v>
+        <v>0.07758962343088882</v>
       </c>
       <c r="H5">
-        <v>0.3600321044057111</v>
+        <v>0.1104195560826433</v>
       </c>
       <c r="I5">
-        <v>0.2307190987788095</v>
+        <v>0.06557877471880325</v>
       </c>
       <c r="J5">
-        <v>0.01873766846595526</v>
+        <v>0.006639562772519092</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.960670535704935</v>
+        <v>0.3464541337819895</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9116051525190301</v>
+        <v>2.714559026266784</v>
       </c>
       <c r="C6">
-        <v>0.244930485682147</v>
+        <v>0.7288230387298711</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8202728406842397</v>
+        <v>0.855213020681262</v>
       </c>
       <c r="F6">
-        <v>1.836576302764101</v>
+        <v>1.379477748557733</v>
       </c>
       <c r="G6">
-        <v>0.1689963763168656</v>
+        <v>0.07752229830039425</v>
       </c>
       <c r="H6">
-        <v>0.360316486260416</v>
+        <v>0.1106887434308845</v>
       </c>
       <c r="I6">
-        <v>0.2310507232801176</v>
+        <v>0.06607247392557758</v>
       </c>
       <c r="J6">
-        <v>0.0187574030470774</v>
+        <v>0.006648098939410652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9616637222684759</v>
+        <v>0.3468582562556506</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9552979966888415</v>
+        <v>2.84628998414172</v>
       </c>
       <c r="C7">
-        <v>0.2560123230507543</v>
+        <v>0.761988638989294</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8291065957569685</v>
+        <v>0.8922240305483626</v>
       </c>
       <c r="F7">
-        <v>1.84343533638409</v>
+        <v>1.428067404491372</v>
       </c>
       <c r="G7">
-        <v>0.1676815689757802</v>
+        <v>0.07805604480164519</v>
       </c>
       <c r="H7">
-        <v>0.3583664373684776</v>
+        <v>0.1088634833733835</v>
       </c>
       <c r="I7">
-        <v>0.2287735139159999</v>
+        <v>0.06270012412760595</v>
       </c>
       <c r="J7">
-        <v>0.01862243910806072</v>
+        <v>0.006593469699359034</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9548727572538809</v>
+        <v>0.3442837361924305</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.14726806545184</v>
+        <v>3.426990026160411</v>
       </c>
       <c r="C8">
-        <v>0.3046915072031879</v>
+        <v>0.9081761367637284</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8688775488406151</v>
+        <v>1.057606086150713</v>
       </c>
       <c r="F8">
-        <v>1.876572866663764</v>
+        <v>1.64934880517653</v>
       </c>
       <c r="G8">
-        <v>0.1625082632025467</v>
+        <v>0.08215528311761489</v>
       </c>
       <c r="H8">
-        <v>0.350352870568301</v>
+        <v>0.1019221743785934</v>
       </c>
       <c r="I8">
-        <v>0.21933576953136</v>
+        <v>0.04922635002324927</v>
       </c>
       <c r="J8">
-        <v>0.01807692512259607</v>
+        <v>0.006473168210430202</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9274586743551225</v>
+        <v>0.338932276887121</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.520539224725894</v>
+        <v>4.565521931110993</v>
       </c>
       <c r="C9">
-        <v>0.3993042774215496</v>
+        <v>1.194693884130857</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9497050979195905</v>
+        <v>1.391345593004516</v>
       </c>
       <c r="F9">
-        <v>1.951931273305348</v>
+        <v>2.112960662845737</v>
       </c>
       <c r="G9">
-        <v>0.1546520295998803</v>
+        <v>0.09748688469444033</v>
       </c>
       <c r="H9">
-        <v>0.3367725966994755</v>
+        <v>0.09276517628464376</v>
       </c>
       <c r="I9">
-        <v>0.2030405858959998</v>
+        <v>0.02847619582108019</v>
       </c>
       <c r="J9">
-        <v>0.01718874681567861</v>
+        <v>0.006737489645974648</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8829545543946153</v>
+        <v>0.3531614675855081</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.79272185520415</v>
+        <v>5.404008501835222</v>
       </c>
       <c r="C10">
-        <v>0.4682666605880286</v>
+        <v>1.405594853731372</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.010827414165973</v>
+        <v>1.644432766037554</v>
       </c>
       <c r="F10">
-        <v>2.013690099286435</v>
+        <v>2.476881641936757</v>
       </c>
       <c r="G10">
-        <v>0.1503019923563684</v>
+        <v>0.1142361992704437</v>
       </c>
       <c r="H10">
-        <v>0.3281034506119127</v>
+        <v>0.08921268009902406</v>
       </c>
       <c r="I10">
-        <v>0.1924311623141364</v>
+        <v>0.01730475880697879</v>
       </c>
       <c r="J10">
-        <v>0.01664842401051381</v>
+        <v>0.007304286807030991</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8559713652977337</v>
+        <v>0.3818537625967053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.916074158366541</v>
+        <v>5.786423781938879</v>
       </c>
       <c r="C11">
-        <v>0.4995135566634303</v>
+        <v>1.501747997297684</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.039013438203341</v>
+        <v>1.761813884272357</v>
       </c>
       <c r="F11">
-        <v>2.043189132929598</v>
+        <v>2.648777960080906</v>
       </c>
       <c r="G11">
-        <v>0.1486375191403013</v>
+        <v>0.1232962731752139</v>
       </c>
       <c r="H11">
-        <v>0.3244452388516734</v>
+        <v>0.08839620196682318</v>
       </c>
       <c r="I11">
-        <v>0.1879035396800344</v>
+        <v>0.01325409573736813</v>
       </c>
       <c r="J11">
-        <v>0.01642731281276788</v>
+        <v>0.00765943155358606</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8449521275111209</v>
+        <v>0.3996264438671346</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962715104956658</v>
+        <v>5.931422787557949</v>
       </c>
       <c r="C12">
-        <v>0.5113273650162</v>
+        <v>1.538200236173225</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.049741612895303</v>
+        <v>1.806635782898567</v>
       </c>
       <c r="F12">
-        <v>2.05456268570768</v>
+        <v>2.714900724447972</v>
       </c>
       <c r="G12">
-        <v>0.1480528998865012</v>
+        <v>0.1269568747748764</v>
       </c>
       <c r="H12">
-        <v>0.3231011467799405</v>
+        <v>0.08821201464385808</v>
       </c>
       <c r="I12">
-        <v>0.1862322524509592</v>
+        <v>0.01188181905971453</v>
       </c>
       <c r="J12">
-        <v>0.01634716055871444</v>
+        <v>0.00780940793432805</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.840961248238969</v>
+        <v>0.4071042187842409</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.952673299130709</v>
+        <v>5.900185592320497</v>
       </c>
       <c r="C13">
-        <v>0.5087838952360357</v>
+        <v>1.530347587423023</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.047428675106843</v>
+        <v>1.796965203084312</v>
       </c>
       <c r="F13">
-        <v>2.052104148421449</v>
+        <v>2.700612246315245</v>
       </c>
       <c r="G13">
-        <v>0.1481767689270939</v>
+        <v>0.1261579019744232</v>
       </c>
       <c r="H13">
-        <v>0.323388786594677</v>
+        <v>0.08824595546344227</v>
       </c>
       <c r="I13">
-        <v>0.1865902671678259</v>
+        <v>0.01216995237643204</v>
       </c>
       <c r="J13">
-        <v>0.01636426321017659</v>
+        <v>0.00777639364112126</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8418126459281865</v>
+        <v>0.4054593394664323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.919912755160908</v>
+        <v>5.798348923193487</v>
       </c>
       <c r="C14">
-        <v>0.5004858654886561</v>
+        <v>1.504746057025557</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.039894954942952</v>
+        <v>1.765493652884444</v>
       </c>
       <c r="F14">
-        <v>2.04412077005469</v>
+        <v>2.654196582039333</v>
       </c>
       <c r="G14">
-        <v>0.1485885039499593</v>
+        <v>0.1235926929012621</v>
       </c>
       <c r="H14">
-        <v>0.324333833156949</v>
+        <v>0.08837848346819754</v>
       </c>
       <c r="I14">
-        <v>0.1877651739798423</v>
+        <v>0.01313787869968941</v>
       </c>
       <c r="J14">
-        <v>0.01642064677390564</v>
+        <v>0.007671450701364435</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8446201430369484</v>
+        <v>0.4002262471266533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899836784276829</v>
+        <v>5.73599674084727</v>
       </c>
       <c r="C15">
-        <v>0.4954006215055529</v>
+        <v>1.489070064810505</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.035287460357381</v>
+        <v>1.746266420536841</v>
       </c>
       <c r="F15">
-        <v>2.039257172530171</v>
+        <v>2.625903351399813</v>
       </c>
       <c r="G15">
-        <v>0.1488466665217558</v>
+        <v>0.1220520486491381</v>
       </c>
       <c r="H15">
-        <v>0.324918070482326</v>
+        <v>0.08847624956651856</v>
       </c>
       <c r="I15">
-        <v>0.1884904757965038</v>
+        <v>0.01375222182488312</v>
       </c>
       <c r="J15">
-        <v>0.01645565010023731</v>
+        <v>0.007609234133127529</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8463635396496585</v>
+        <v>0.3971203288972447</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.784650876091746</v>
+        <v>5.379040326705251</v>
       </c>
       <c r="C16">
-        <v>0.4662220282388034</v>
+        <v>1.399316182374719</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.008993055048222</v>
+        <v>1.636810962575666</v>
       </c>
       <c r="F16">
-        <v>2.011790611802184</v>
+        <v>2.465785256859334</v>
       </c>
       <c r="G16">
-        <v>0.1504171362110043</v>
+        <v>0.1136749829357697</v>
       </c>
       <c r="H16">
-        <v>0.3283482796327704</v>
+        <v>0.08928296693260052</v>
       </c>
       <c r="I16">
-        <v>0.1927330866654819</v>
+        <v>0.01759134791333405</v>
       </c>
       <c r="J16">
-        <v>0.01666337326892986</v>
+        <v>0.007283160512088216</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8567168762285178</v>
+        <v>0.3807930271198643</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.713866800003302</v>
+        <v>5.16034192514104</v>
       </c>
       <c r="C17">
-        <v>0.4482894495336041</v>
+        <v>1.344316830546063</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9929598635472843</v>
+        <v>1.570273047259874</v>
       </c>
       <c r="F17">
-        <v>1.995301183207957</v>
+        <v>2.36926323298492</v>
       </c>
       <c r="G17">
-        <v>0.1514614259868452</v>
+        <v>0.1089204437363378</v>
       </c>
       <c r="H17">
-        <v>0.3305258126905244</v>
+        <v>0.08998953677053834</v>
       </c>
       <c r="I17">
-        <v>0.195412482529985</v>
+        <v>0.02021983859542287</v>
       </c>
       <c r="J17">
-        <v>0.01679714701274726</v>
+        <v>0.007109074046969255</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.863390829980375</v>
+        <v>0.372033092847289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.673110088650446</v>
+        <v>5.034642019135958</v>
       </c>
       <c r="C18">
-        <v>0.4379634403277919</v>
+        <v>1.312702043474644</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9837738780308314</v>
+        <v>1.532210838601841</v>
       </c>
       <c r="F18">
-        <v>1.98594905527132</v>
+        <v>2.314336112201687</v>
       </c>
       <c r="G18">
-        <v>0.1520916366429645</v>
+        <v>0.1063199149983376</v>
       </c>
       <c r="H18">
-        <v>0.331805128858953</v>
+        <v>0.09047055227969025</v>
       </c>
       <c r="I18">
-        <v>0.1969816945379712</v>
+        <v>0.0218278921386621</v>
       </c>
       <c r="J18">
-        <v>0.01687641185750266</v>
+        <v>0.007018006120686593</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8673476112761875</v>
+        <v>0.367434490347847</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.659303174080435</v>
+        <v>4.992096273508707</v>
       </c>
       <c r="C19">
-        <v>0.4344652527788639</v>
+        <v>1.302000846604699</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9806698262874392</v>
+        <v>1.519358061103816</v>
       </c>
       <c r="F19">
-        <v>1.982805255151604</v>
+        <v>2.295836649703233</v>
       </c>
       <c r="G19">
-        <v>0.1523100781425555</v>
+        <v>0.1054618027041556</v>
       </c>
       <c r="H19">
-        <v>0.3322428914528288</v>
+        <v>0.09064593842044388</v>
       </c>
       <c r="I19">
-        <v>0.1975178195109701</v>
+        <v>0.02238848631231694</v>
       </c>
       <c r="J19">
-        <v>0.01690364747184603</v>
+        <v>0.006988684879196683</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8687075528765433</v>
+        <v>0.3659510207874916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.721406418501203</v>
+        <v>5.183613152448004</v>
       </c>
       <c r="C20">
-        <v>0.4501996163149329</v>
+        <v>1.350169526496927</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9946629110305736</v>
+        <v>1.577334191990658</v>
       </c>
       <c r="F20">
-        <v>1.997042826771221</v>
+        <v>2.379476314875717</v>
       </c>
       <c r="G20">
-        <v>0.1513471964871087</v>
+        <v>0.1094125299393696</v>
       </c>
       <c r="H20">
-        <v>0.3302912299229419</v>
+        <v>0.08990652872090266</v>
       </c>
       <c r="I20">
-        <v>0.1951243465853412</v>
+        <v>0.01992997996008627</v>
       </c>
       <c r="J20">
-        <v>0.01678266607558321</v>
+        <v>0.00712665751404451</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8626681437645374</v>
+        <v>0.3729195951548405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.929537241980029</v>
+        <v>5.828255375307208</v>
       </c>
       <c r="C21">
-        <v>0.5029237123263783</v>
+        <v>1.512264642339915</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.042106306133874</v>
+        <v>1.774727096048665</v>
       </c>
       <c r="F21">
-        <v>2.046460167522156</v>
+        <v>2.667801066374864</v>
       </c>
       <c r="G21">
-        <v>0.1484663238715171</v>
+        <v>0.1243397328967788</v>
       </c>
       <c r="H21">
-        <v>0.3240551309089668</v>
+        <v>0.08833608066951371</v>
       </c>
       <c r="I21">
-        <v>0.1874189000279713</v>
+        <v>0.0128490777710657</v>
       </c>
       <c r="J21">
-        <v>0.01640398823044364</v>
+        <v>0.00770184199080326</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8437905667597079</v>
+        <v>0.4017424664388898</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065153987059546</v>
+        <v>6.250678212895423</v>
       </c>
       <c r="C22">
-        <v>0.5372725085346701</v>
+        <v>1.618448514646047</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.073432338126736</v>
+        <v>1.905930598232345</v>
       </c>
       <c r="F22">
-        <v>2.079940397169963</v>
+        <v>2.862300193666925</v>
       </c>
       <c r="G22">
-        <v>0.1468499872374025</v>
+        <v>0.1354464675629856</v>
       </c>
       <c r="H22">
-        <v>0.3202196551762597</v>
+        <v>0.08804350387794813</v>
       </c>
       <c r="I22">
-        <v>0.182635024240132</v>
+        <v>0.009170270388316748</v>
       </c>
       <c r="J22">
-        <v>0.01617736734554676</v>
+        <v>0.008168840922420983</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.832513648818761</v>
+        <v>0.4249737130844693</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992811176225359</v>
+        <v>6.025105426154312</v>
       </c>
       <c r="C23">
-        <v>0.5189501926435582</v>
+        <v>1.561750006013654</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.056683877019253</v>
+        <v>1.835686509559793</v>
       </c>
       <c r="F23">
-        <v>2.061962804515247</v>
+        <v>2.75789615286962</v>
       </c>
       <c r="G23">
-        <v>0.1476881176386229</v>
+        <v>0.1293870485800213</v>
       </c>
       <c r="H23">
-        <v>0.3222446953678499</v>
+        <v>0.08812899395575613</v>
       </c>
       <c r="I23">
-        <v>0.1851651114298569</v>
+        <v>0.01104222093284069</v>
       </c>
       <c r="J23">
-        <v>0.01629640053966774</v>
+        <v>0.00791073140141485</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8384348654437872</v>
+        <v>0.4121485224624308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717997949881578</v>
+        <v>5.173092132039073</v>
       </c>
       <c r="C24">
-        <v>0.4493360807224462</v>
+        <v>1.347523507635003</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9938928644848346</v>
+        <v>1.574141256134254</v>
       </c>
       <c r="F24">
-        <v>1.996255031491316</v>
+        <v>2.374857230398135</v>
       </c>
       <c r="G24">
-        <v>0.1513987467470059</v>
+        <v>0.1091896454388674</v>
       </c>
       <c r="H24">
-        <v>0.3303971993797887</v>
+        <v>0.0899438244256956</v>
       </c>
       <c r="I24">
-        <v>0.1952545231822791</v>
+        <v>0.02006072422542182</v>
       </c>
       <c r="J24">
-        <v>0.01678920556929775</v>
+        <v>0.007118680055317128</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.862994497016345</v>
+        <v>0.3725174495752697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.419912634236312</v>
+        <v>4.257332570406106</v>
       </c>
       <c r="C25">
-        <v>0.3738031615654336</v>
+        <v>1.117151921298387</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9275344979854339</v>
+        <v>1.29984157995024</v>
       </c>
       <c r="F25">
-        <v>1.930427050121679</v>
+        <v>1.983851938888648</v>
       </c>
       <c r="G25">
-        <v>0.1565295687161097</v>
+        <v>0.09245558766751572</v>
       </c>
       <c r="H25">
-        <v>0.3402171889872747</v>
+        <v>0.09471996887325673</v>
       </c>
       <c r="I25">
-        <v>0.207210584299911</v>
+        <v>0.03342132795389552</v>
       </c>
       <c r="J25">
-        <v>0.0174094257581956</v>
+        <v>0.006605755559837334</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8939958520573157</v>
+        <v>0.3463517059661996</v>
       </c>
     </row>
   </sheetData>
